--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_4_backlog_actividades_horas.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_4_backlog_actividades_horas.xlsx
@@ -238,7 +238,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -247,7 +247,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,7 +466,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="17.71"/>
-    <col customWidth="1" min="3" max="3" width="80.0"/>
+    <col customWidth="1" min="3" max="3" width="101.29"/>
     <col customWidth="1" min="4" max="4" width="22.29"/>
     <col customWidth="1" min="5" max="26" width="10.71"/>
   </cols>
@@ -530,10 +530,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="14">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8" ht="27.0" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8" ht="39.0" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -544,7 +544,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="14">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9" ht="27.0" customHeight="1">
@@ -558,7 +558,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="14">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10" ht="27.0" customHeight="1">
@@ -572,7 +572,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="14">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11" ht="27.0" customHeight="1">
@@ -600,7 +600,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="14">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13" ht="27.0" customHeight="1">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="14">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14" ht="27.0" customHeight="1">
@@ -628,7 +628,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="14">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15" ht="27.0" customHeight="1">
@@ -670,7 +670,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="14">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -684,7 +684,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="17">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
